--- a/app/database/login_auth.xlsx
+++ b/app/database/login_auth.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\things\Nam\code\projects\DataProject_PythonBackend\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\things\Nam\code\projects\DataProject_PythonBackend\app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7561899D-DE1E-4D7F-8281-17F8F032B969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5200F258-AEB4-4A8E-B928-915C5BC6838A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>user_name</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>19031998</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin_password</t>
+  </si>
+  <si>
+    <t>adm_zDKTKFt2y@AwMXt</t>
+  </si>
+  <si>
+    <t>sonv@ueh.edu.vn</t>
+  </si>
+  <si>
+    <t>Vuson1995@</t>
+  </si>
+  <si>
+    <t>3mbwzgn3y4H4*t4</t>
   </si>
 </sst>
 </file>
@@ -401,17 +419,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -462,9 +481,32 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{438308E3-EDF9-4318-958D-B790BAAA2B0D}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{5E4A155D-6EDC-46F0-A25E-9D08E5BAF0D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/database/login_auth.xlsx
+++ b/app/database/login_auth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\things\Nam\code\projects\DataProject_PythonBackend\app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5200F258-AEB4-4A8E-B928-915C5BC6838A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB55A6FA-BA96-4C4D-A06D-FF1E4CE75A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>user_name</t>
   </si>
@@ -90,6 +90,39 @@
   </si>
   <si>
     <t>3mbwzgn3y4H4*t4</t>
+  </si>
+  <si>
+    <t>group_id</t>
+  </si>
+  <si>
+    <t>GroupID_a330f381-4e38-4a93-a0c9-f194425aabf8</t>
+  </si>
+  <si>
+    <t>GroupID_990381bf-777a-4622-baba-0695fbf477dd</t>
+  </si>
+  <si>
+    <t>GroupID_f02b7648-cb29-43ec-9ea8-13e942b19de2</t>
+  </si>
+  <si>
+    <t>GroupID_640cd15a-4df8-4937-a26b-e801d7ebdfa7</t>
+  </si>
+  <si>
+    <t>GroupID_9106a6c0-7ed2-488e-83db-149993c458ba</t>
+  </si>
+  <si>
+    <t>Lương Hữu Thành Nam</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>Trần Thị B</t>
+  </si>
+  <si>
+    <t>Lê Văn C</t>
+  </si>
+  <si>
+    <t>Vũ Sơn</t>
   </si>
 </sst>
 </file>
@@ -419,21 +452,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,9 +480,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -458,8 +497,14 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -469,8 +514,14 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -480,8 +531,14 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -491,8 +548,14 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -501,6 +564,9 @@
       </c>
       <c r="D6" t="s">
         <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/app/database/login_auth.xlsx
+++ b/app/database/login_auth.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\things\Nam\code\projects\DataProject_PythonBackend\app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB55A6FA-BA96-4C4D-A06D-FF1E4CE75A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083FF4A2-8E0D-4B3D-9C3B-27E34FE3CCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>user_name</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>Vũ Sơn</t>
+  </si>
+  <si>
+    <t>quanlychung</t>
+  </si>
+  <si>
+    <t>quanlychung@test</t>
+  </si>
+  <si>
+    <t>manager001</t>
   </si>
 </sst>
 </file>
@@ -452,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,77 +511,95 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{438308E3-EDF9-4318-958D-B790BAAA2B0D}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{5E4A155D-6EDC-46F0-A25E-9D08E5BAF0D6}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{5E4A155D-6EDC-46F0-A25E-9D08E5BAF0D6}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{97305669-416F-4ACE-9306-CBA1B5919826}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/database/login_auth.xlsx
+++ b/app/database/login_auth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\things\Nam\code\projects\DataProject_PythonBackend\app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083FF4A2-8E0D-4B3D-9C3B-27E34FE3CCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0F0B33-0086-4917-ABF5-3DC58F96255F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>user_name</t>
   </si>
@@ -128,10 +128,7 @@
     <t>quanlychung</t>
   </si>
   <si>
-    <t>quanlychung@test</t>
-  </si>
-  <si>
-    <t>manager001</t>
+    <t>12345678</t>
   </si>
 </sst>
 </file>
@@ -464,7 +461,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,13 +512,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -599,8 +596,9 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{438308E3-EDF9-4318-958D-B790BAAA2B0D}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{5E4A155D-6EDC-46F0-A25E-9D08E5BAF0D6}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{97305669-416F-4ACE-9306-CBA1B5919826}"/>
+    <hyperlink ref="B3" r:id="rId3" display="quanlychung@test" xr:uid="{97305669-416F-4ACE-9306-CBA1B5919826}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>